--- a/data/pca/factorExposure/factorExposure_2016-03-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-03-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01206621097979173</v>
+        <v>0.01564512291485542</v>
       </c>
       <c r="C2">
-        <v>-0.05836263484829095</v>
+        <v>0.04156574406717826</v>
       </c>
       <c r="D2">
-        <v>-0.03791345569749182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.07182093248387841</v>
+      </c>
+      <c r="E2">
+        <v>-0.1078903031063345</v>
+      </c>
+      <c r="F2">
+        <v>-0.07442341849025107</v>
+      </c>
+      <c r="G2">
+        <v>-0.02803093895925718</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04232440646103273</v>
+        <v>0.02662869304326767</v>
       </c>
       <c r="C3">
-        <v>-0.1218445740507004</v>
+        <v>0.06695106550344782</v>
       </c>
       <c r="D3">
-        <v>-0.08258187774191454</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07972751064249146</v>
+      </c>
+      <c r="E3">
+        <v>-0.06478981247077659</v>
+      </c>
+      <c r="F3">
+        <v>0.0342141190515937</v>
+      </c>
+      <c r="G3">
+        <v>-0.03144423717472729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06149744893768781</v>
+        <v>0.06072773365660892</v>
       </c>
       <c r="C4">
-        <v>-0.06754775366330007</v>
+        <v>0.06553419261836879</v>
       </c>
       <c r="D4">
-        <v>-0.0320668115116542</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06635194177453224</v>
+      </c>
+      <c r="E4">
+        <v>-0.1000908215724081</v>
+      </c>
+      <c r="F4">
+        <v>-0.02733043937344036</v>
+      </c>
+      <c r="G4">
+        <v>-0.07637363642651306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03975398635945548</v>
+        <v>0.03759371879011422</v>
       </c>
       <c r="C6">
-        <v>-0.03728631271247834</v>
+        <v>0.02742872103004479</v>
       </c>
       <c r="D6">
-        <v>-0.02979979144029</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06907877789362823</v>
+      </c>
+      <c r="E6">
+        <v>-0.09188692691725911</v>
+      </c>
+      <c r="F6">
+        <v>-0.01880227892633115</v>
+      </c>
+      <c r="G6">
+        <v>-0.0582983957150288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02708167771483936</v>
+        <v>0.02143264362841655</v>
       </c>
       <c r="C7">
-        <v>-0.04128143849805644</v>
+        <v>0.03700059217266422</v>
       </c>
       <c r="D7">
-        <v>0.005010527266005262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04574460109009499</v>
+      </c>
+      <c r="E7">
+        <v>-0.07694385903636267</v>
+      </c>
+      <c r="F7">
+        <v>-0.05376207183136684</v>
+      </c>
+      <c r="G7">
+        <v>-0.1013726124493847</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.007899628693735025</v>
+        <v>0.007424774973402885</v>
       </c>
       <c r="C8">
-        <v>-0.04240069260022392</v>
+        <v>0.0351130538333615</v>
       </c>
       <c r="D8">
-        <v>-0.02505396523789288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.04195422526328692</v>
+      </c>
+      <c r="E8">
+        <v>-0.06054390244115108</v>
+      </c>
+      <c r="F8">
+        <v>-0.012815046359271</v>
+      </c>
+      <c r="G8">
+        <v>-0.03699798101634181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03815962070748359</v>
+        <v>0.04153221341376031</v>
       </c>
       <c r="C9">
-        <v>-0.04868271951465811</v>
+        <v>0.05121043379011073</v>
       </c>
       <c r="D9">
-        <v>-0.01680018889051761</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04733931260189068</v>
+      </c>
+      <c r="E9">
+        <v>-0.07752150049575411</v>
+      </c>
+      <c r="F9">
+        <v>-0.04422214165132018</v>
+      </c>
+      <c r="G9">
+        <v>-0.07881523607166704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07232719538420204</v>
+        <v>0.09922483805247563</v>
       </c>
       <c r="C10">
-        <v>0.1902564834071624</v>
+        <v>-0.2016978458048187</v>
       </c>
       <c r="D10">
-        <v>0.003072222995392786</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.009869421358396026</v>
+      </c>
+      <c r="E10">
+        <v>-0.03512575835765318</v>
+      </c>
+      <c r="F10">
+        <v>-0.01650760223250571</v>
+      </c>
+      <c r="G10">
+        <v>-0.04232635660886003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04306366536911284</v>
+        <v>0.03797847966347767</v>
       </c>
       <c r="C11">
-        <v>-0.05176066265799451</v>
+        <v>0.04750709965797362</v>
       </c>
       <c r="D11">
-        <v>-0.01434395385214425</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03359948291131529</v>
+      </c>
+      <c r="E11">
+        <v>-0.03208498804797809</v>
+      </c>
+      <c r="F11">
+        <v>-0.02929718082112213</v>
+      </c>
+      <c r="G11">
+        <v>-0.07033494957970726</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04586804221236573</v>
+        <v>0.04014932604561647</v>
       </c>
       <c r="C12">
-        <v>-0.04709343848746855</v>
+        <v>0.04590674608426204</v>
       </c>
       <c r="D12">
-        <v>-0.0008839274770493251</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.0287954477502449</v>
+      </c>
+      <c r="E12">
+        <v>-0.03959685301262426</v>
+      </c>
+      <c r="F12">
+        <v>-0.0310677953796406</v>
+      </c>
+      <c r="G12">
+        <v>-0.06650417069792162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.0160764242036455</v>
+        <v>0.01493581279700813</v>
       </c>
       <c r="C13">
-        <v>-0.05479983242932443</v>
+        <v>0.04288236739184491</v>
       </c>
       <c r="D13">
-        <v>-0.008233188602289679</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05701131732074509</v>
+      </c>
+      <c r="E13">
+        <v>-0.1134860981899491</v>
+      </c>
+      <c r="F13">
+        <v>-0.04464741003929634</v>
+      </c>
+      <c r="G13">
+        <v>-0.09104046363660522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01099326870013774</v>
+        <v>0.007633996521658333</v>
       </c>
       <c r="C14">
-        <v>-0.0356145570892188</v>
+        <v>0.03035295153232054</v>
       </c>
       <c r="D14">
-        <v>0.001741071285162201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03164127007303092</v>
+      </c>
+      <c r="E14">
+        <v>-0.06434141127997313</v>
+      </c>
+      <c r="F14">
+        <v>-0.06291977264663762</v>
+      </c>
+      <c r="G14">
+        <v>-0.08051300841595331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0001842965072503069</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006344482934438942</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.009663022278131782</v>
+      </c>
+      <c r="E15">
+        <v>-0.007470005184093404</v>
+      </c>
+      <c r="F15">
+        <v>-0.00534495452302585</v>
+      </c>
+      <c r="G15">
+        <v>-0.007598268890503729</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04084578447947018</v>
+        <v>0.03620990310186523</v>
       </c>
       <c r="C16">
-        <v>-0.04865833354126639</v>
+        <v>0.04442046441581351</v>
       </c>
       <c r="D16">
-        <v>-0.003192731905004759</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02847069364693405</v>
+      </c>
+      <c r="E16">
+        <v>-0.04675638191246417</v>
+      </c>
+      <c r="F16">
+        <v>-0.04185401439969658</v>
+      </c>
+      <c r="G16">
+        <v>-0.05735457556893565</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02670315447874162</v>
+        <v>0.01897546095911365</v>
       </c>
       <c r="C19">
-        <v>-0.06125344080247306</v>
+        <v>0.04507204306874169</v>
       </c>
       <c r="D19">
-        <v>-0.08593512107204067</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09742579553554039</v>
+      </c>
+      <c r="E19">
+        <v>-0.1109757673888116</v>
+      </c>
+      <c r="F19">
+        <v>-0.05017072181754895</v>
+      </c>
+      <c r="G19">
+        <v>-0.0354326811219399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01994470590057239</v>
+        <v>0.01631644019348574</v>
       </c>
       <c r="C20">
-        <v>-0.05020368040229773</v>
+        <v>0.04043537837847768</v>
       </c>
       <c r="D20">
-        <v>-0.0074991946990724</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04161631441582992</v>
+      </c>
+      <c r="E20">
+        <v>-0.08661196181299186</v>
+      </c>
+      <c r="F20">
+        <v>-0.04422871050661432</v>
+      </c>
+      <c r="G20">
+        <v>-0.06378790380244331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01345913499754626</v>
+        <v>0.01322760546862973</v>
       </c>
       <c r="C21">
-        <v>-0.05596865780684791</v>
+        <v>0.04430378273440885</v>
       </c>
       <c r="D21">
-        <v>-0.03158654967309456</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06815141300225785</v>
+      </c>
+      <c r="E21">
+        <v>-0.1363113731139927</v>
+      </c>
+      <c r="F21">
+        <v>-0.07145229815483664</v>
+      </c>
+      <c r="G21">
+        <v>-0.09323685557611028</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.002771610121440937</v>
+        <v>0.004575219748691592</v>
       </c>
       <c r="C22">
-        <v>-0.001143795474713708</v>
+        <v>0.02973293160616426</v>
       </c>
       <c r="D22">
-        <v>-0.009234748222050908</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.05953166917344321</v>
+      </c>
+      <c r="E22">
+        <v>-0.06509811256035543</v>
+      </c>
+      <c r="F22">
+        <v>0.02917095463968145</v>
+      </c>
+      <c r="G22">
+        <v>-0.05169443289966921</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.002765638065779096</v>
+        <v>0.004661400305405089</v>
       </c>
       <c r="C23">
-        <v>-0.001141059055207939</v>
+        <v>0.02975477258287431</v>
       </c>
       <c r="D23">
-        <v>-0.009161325323666571</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.05874093953223255</v>
+      </c>
+      <c r="E23">
+        <v>-0.06519811773138863</v>
+      </c>
+      <c r="F23">
+        <v>0.02929867217639931</v>
+      </c>
+      <c r="G23">
+        <v>-0.05179968479917502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03789902314587145</v>
+        <v>0.03724485015324693</v>
       </c>
       <c r="C24">
-        <v>-0.04941259767522055</v>
+        <v>0.05250824047546534</v>
       </c>
       <c r="D24">
-        <v>-0.008145962739997167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02976014947582831</v>
+      </c>
+      <c r="E24">
+        <v>-0.05098631670694021</v>
+      </c>
+      <c r="F24">
+        <v>-0.0422928931139419</v>
+      </c>
+      <c r="G24">
+        <v>-0.06768211867751248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04904476335685619</v>
+        <v>0.04466568611744502</v>
       </c>
       <c r="C25">
-        <v>-0.05921080123751781</v>
+        <v>0.05540485563814399</v>
       </c>
       <c r="D25">
-        <v>0.002546907801513353</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0264137872295338</v>
+      </c>
+      <c r="E25">
+        <v>-0.04094742567581889</v>
+      </c>
+      <c r="F25">
+        <v>-0.03282298831411425</v>
+      </c>
+      <c r="G25">
+        <v>-0.08138647754809002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01907843845275889</v>
+        <v>0.01743562632872702</v>
       </c>
       <c r="C26">
-        <v>-0.01753559137881532</v>
+        <v>0.01696406104169205</v>
       </c>
       <c r="D26">
-        <v>-0.008213715312126429</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.03071256653371044</v>
+      </c>
+      <c r="E26">
+        <v>-0.05835555352399657</v>
+      </c>
+      <c r="F26">
+        <v>-0.04701365057313415</v>
+      </c>
+      <c r="G26">
+        <v>-0.04679707798858751</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09082015589943206</v>
+        <v>0.1358850063307709</v>
       </c>
       <c r="C28">
-        <v>0.2569674906814194</v>
+        <v>-0.2598344614642741</v>
       </c>
       <c r="D28">
-        <v>0.006591297176780325</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02603420117419761</v>
+      </c>
+      <c r="E28">
+        <v>-0.05582471957126284</v>
+      </c>
+      <c r="F28">
+        <v>-0.02609409615434049</v>
+      </c>
+      <c r="G28">
+        <v>-0.05730275973888144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009087012438293537</v>
+        <v>0.008039676135155853</v>
       </c>
       <c r="C29">
-        <v>-0.03244065179652278</v>
+        <v>0.02868607206831059</v>
       </c>
       <c r="D29">
-        <v>0.008286997246452765</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02383444635356612</v>
+      </c>
+      <c r="E29">
+        <v>-0.06333659508058613</v>
+      </c>
+      <c r="F29">
+        <v>-0.0540402373715974</v>
+      </c>
+      <c r="G29">
+        <v>-0.08556366427428348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04592955238283712</v>
+        <v>0.04525924236672686</v>
       </c>
       <c r="C30">
-        <v>-0.05068740869481343</v>
+        <v>0.05672452795171375</v>
       </c>
       <c r="D30">
-        <v>-0.07944393429040858</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1100982913811642</v>
+      </c>
+      <c r="E30">
+        <v>-0.08668515630869092</v>
+      </c>
+      <c r="F30">
+        <v>-0.04990983854384978</v>
+      </c>
+      <c r="G30">
+        <v>-0.05856621188702686</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06168215474492175</v>
+        <v>0.06007228777467367</v>
       </c>
       <c r="C31">
-        <v>-0.04644361101681433</v>
+        <v>0.0608031849885599</v>
       </c>
       <c r="D31">
-        <v>0.04138901269413397</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01108411280584108</v>
+      </c>
+      <c r="E31">
+        <v>-0.07648016839768407</v>
+      </c>
+      <c r="F31">
+        <v>-0.01033803893973688</v>
+      </c>
+      <c r="G31">
+        <v>-0.07353541111356428</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.004456078733330631</v>
+        <v>0.009050718495433582</v>
       </c>
       <c r="C32">
-        <v>-0.04036831029808018</v>
+        <v>0.03531708248609761</v>
       </c>
       <c r="D32">
-        <v>-0.05740219247773096</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.06014605689054648</v>
+      </c>
+      <c r="E32">
+        <v>-0.06394483945979834</v>
+      </c>
+      <c r="F32">
+        <v>-0.05396875121934285</v>
+      </c>
+      <c r="G32">
+        <v>-0.0627822839759349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03485132538055484</v>
+        <v>0.02888967693190233</v>
       </c>
       <c r="C33">
-        <v>-0.05954277027234377</v>
+        <v>0.05270146537868571</v>
       </c>
       <c r="D33">
-        <v>-0.03868146292479002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07639377803563865</v>
+      </c>
+      <c r="E33">
+        <v>-0.09208009962179357</v>
+      </c>
+      <c r="F33">
+        <v>-0.05040256210498652</v>
+      </c>
+      <c r="G33">
+        <v>-0.1012600849769711</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04575067307167986</v>
+        <v>0.04198147663336491</v>
       </c>
       <c r="C34">
-        <v>-0.06498509351241834</v>
+        <v>0.06251856393860815</v>
       </c>
       <c r="D34">
-        <v>-0.02317201773228311</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03892608493837382</v>
+      </c>
+      <c r="E34">
+        <v>-0.02171233574913032</v>
+      </c>
+      <c r="F34">
+        <v>-0.04412024543598118</v>
+      </c>
+      <c r="G34">
+        <v>-0.07575696624436136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01806390321756857</v>
+        <v>0.01578616080941824</v>
       </c>
       <c r="C36">
-        <v>-0.01735968928302792</v>
+        <v>0.01371878236351477</v>
       </c>
       <c r="D36">
-        <v>0.0003273405679765587</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02934605759819157</v>
+      </c>
+      <c r="E36">
+        <v>-0.06645328661868462</v>
+      </c>
+      <c r="F36">
+        <v>-0.03905446627575564</v>
+      </c>
+      <c r="G36">
+        <v>-0.06484596752279011</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02981838611038098</v>
+        <v>0.02374360377805235</v>
       </c>
       <c r="C38">
-        <v>-0.03186073745319336</v>
+        <v>0.02425675091600834</v>
       </c>
       <c r="D38">
-        <v>0.01489741692024409</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02397134834171733</v>
+      </c>
+      <c r="E38">
+        <v>-0.0574103555732796</v>
+      </c>
+      <c r="F38">
+        <v>-0.03017246450296664</v>
+      </c>
+      <c r="G38">
+        <v>-0.0427826926147639</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04845523511099153</v>
+        <v>0.04303465574097875</v>
       </c>
       <c r="C39">
-        <v>-0.06042547858717189</v>
+        <v>0.06183701295427629</v>
       </c>
       <c r="D39">
-        <v>-0.02185626119520965</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05657378764610681</v>
+      </c>
+      <c r="E39">
+        <v>-0.05939476955691073</v>
+      </c>
+      <c r="F39">
+        <v>-0.06282554096329397</v>
+      </c>
+      <c r="G39">
+        <v>-0.06459025138274613</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01244402384624239</v>
+        <v>0.01534808009623961</v>
       </c>
       <c r="C40">
-        <v>-0.05391063706767833</v>
+        <v>0.03900078410732304</v>
       </c>
       <c r="D40">
-        <v>-0.008240792480108936</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03695049311850393</v>
+      </c>
+      <c r="E40">
+        <v>-0.09904654056418956</v>
+      </c>
+      <c r="F40">
+        <v>-0.02495140345041047</v>
+      </c>
+      <c r="G40">
+        <v>-0.09560202076213799</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02420074653873317</v>
+        <v>0.02061346529960023</v>
       </c>
       <c r="C41">
-        <v>-0.01544848962002797</v>
+        <v>0.009817106918684272</v>
       </c>
       <c r="D41">
-        <v>0.000136001798614218</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.02025067881350965</v>
+      </c>
+      <c r="E41">
+        <v>-0.0668314015367492</v>
+      </c>
+      <c r="F41">
+        <v>-0.03366644374044658</v>
+      </c>
+      <c r="G41">
+        <v>-0.05108767071037431</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04558084033193225</v>
+        <v>0.03252539786435549</v>
       </c>
       <c r="C43">
-        <v>-0.03495703624378269</v>
+        <v>0.02479630195468673</v>
       </c>
       <c r="D43">
-        <v>-0.02099911762227909</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04970304554893609</v>
+      </c>
+      <c r="E43">
+        <v>-0.08246828069376543</v>
+      </c>
+      <c r="F43">
+        <v>-0.02281596744298029</v>
+      </c>
+      <c r="G43">
+        <v>-0.07182612013949671</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01802847333967985</v>
+        <v>0.01896349676567768</v>
       </c>
       <c r="C44">
-        <v>-0.07036462724155107</v>
+        <v>0.0485863125676094</v>
       </c>
       <c r="D44">
-        <v>0.0004945112939934886</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.0385003422364916</v>
+      </c>
+      <c r="E44">
+        <v>-0.09378806672201762</v>
+      </c>
+      <c r="F44">
+        <v>-0.05414141275014521</v>
+      </c>
+      <c r="G44">
+        <v>-0.05453282862520388</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01346514439430221</v>
+        <v>0.0130481473832642</v>
       </c>
       <c r="C46">
-        <v>-0.02635498700075656</v>
+        <v>0.02862738524803134</v>
       </c>
       <c r="D46">
-        <v>0.009959700755075599</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.02176780032715262</v>
+      </c>
+      <c r="E46">
+        <v>-0.07571691586159464</v>
+      </c>
+      <c r="F46">
+        <v>-0.06096470906361808</v>
+      </c>
+      <c r="G46">
+        <v>-0.07885259016079108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.09159997622856257</v>
+        <v>0.09398317006293361</v>
       </c>
       <c r="C47">
-        <v>-0.06558305286124011</v>
+        <v>0.07767396397487938</v>
       </c>
       <c r="D47">
-        <v>0.04607831080319399</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01941080454546797</v>
+      </c>
+      <c r="E47">
+        <v>-0.06830797326311201</v>
+      </c>
+      <c r="F47">
+        <v>-0.01356099147039428</v>
+      </c>
+      <c r="G47">
+        <v>-0.0754736996676374</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02045471363738325</v>
+        <v>0.01898117156515098</v>
       </c>
       <c r="C48">
-        <v>-0.01394415729785916</v>
+        <v>0.01603284707520028</v>
       </c>
       <c r="D48">
-        <v>0.01576163395639687</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01694963939294606</v>
+      </c>
+      <c r="E48">
+        <v>-0.08026091966744998</v>
+      </c>
+      <c r="F48">
+        <v>-0.05248105289813772</v>
+      </c>
+      <c r="G48">
+        <v>-0.0704542392679741</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08509216169996477</v>
+        <v>0.07318825424922992</v>
       </c>
       <c r="C50">
-        <v>-0.08176568997682968</v>
+        <v>0.07347905460000824</v>
       </c>
       <c r="D50">
-        <v>0.04359650309563071</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.001854901021459661</v>
+      </c>
+      <c r="E50">
+        <v>-0.08216225238175871</v>
+      </c>
+      <c r="F50">
+        <v>0.01801136025650644</v>
+      </c>
+      <c r="G50">
+        <v>-0.08140349820095895</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01634390753775803</v>
+        <v>0.01222916934688342</v>
       </c>
       <c r="C51">
-        <v>-0.04762570464237793</v>
+        <v>0.03047440010153681</v>
       </c>
       <c r="D51">
-        <v>-0.0479882326841028</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0643484872296827</v>
+      </c>
+      <c r="E51">
+        <v>-0.06444535109981364</v>
+      </c>
+      <c r="F51">
+        <v>-0.05109710915952234</v>
+      </c>
+      <c r="G51">
+        <v>-0.05341240299009572</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08473679195377692</v>
+        <v>0.09849182363100117</v>
       </c>
       <c r="C53">
-        <v>-0.07731055758045831</v>
+        <v>0.0840121099289715</v>
       </c>
       <c r="D53">
-        <v>0.0686673759215278</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.05939330215283722</v>
+      </c>
+      <c r="E53">
+        <v>-0.07186597568162024</v>
+      </c>
+      <c r="F53">
+        <v>-0.02011955150029317</v>
+      </c>
+      <c r="G53">
+        <v>-0.07632405133570765</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03720351892028649</v>
+        <v>0.03105907266888228</v>
       </c>
       <c r="C54">
-        <v>-0.03392775806432678</v>
+        <v>0.03090839531235088</v>
       </c>
       <c r="D54">
-        <v>-0.001114964760132477</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03137563916811977</v>
+      </c>
+      <c r="E54">
+        <v>-0.06777698046337398</v>
+      </c>
+      <c r="F54">
+        <v>-0.05576240669572236</v>
+      </c>
+      <c r="G54">
+        <v>-0.08371826518066817</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08076595368242766</v>
+        <v>0.09119295567661044</v>
       </c>
       <c r="C55">
-        <v>-0.05074945540311721</v>
+        <v>0.06542277984989359</v>
       </c>
       <c r="D55">
-        <v>0.07189886538230439</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.05878843340527676</v>
+      </c>
+      <c r="E55">
+        <v>-0.0490819492608964</v>
+      </c>
+      <c r="F55">
+        <v>0.001283906753417746</v>
+      </c>
+      <c r="G55">
+        <v>-0.05517663269365932</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1537240225028986</v>
+        <v>0.1560093494792602</v>
       </c>
       <c r="C56">
-        <v>-0.0791633126730088</v>
+        <v>0.09841475755182287</v>
       </c>
       <c r="D56">
-        <v>0.06246735738907031</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05227621431522873</v>
+      </c>
+      <c r="E56">
+        <v>-0.03834257411833156</v>
+      </c>
+      <c r="F56">
+        <v>0.0110647033053427</v>
+      </c>
+      <c r="G56">
+        <v>-0.02366000433931593</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04876240476474787</v>
+        <v>0.03307329640652588</v>
       </c>
       <c r="C58">
-        <v>-0.02181014124950181</v>
+        <v>0.02451766153071236</v>
       </c>
       <c r="D58">
-        <v>-0.4385218023899356</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3923516661579294</v>
+      </c>
+      <c r="E58">
+        <v>-0.5345105894016622</v>
+      </c>
+      <c r="F58">
+        <v>0.3871975406951165</v>
+      </c>
+      <c r="G58">
+        <v>0.5463177228862421</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1231334020755394</v>
+        <v>0.1389317621630511</v>
       </c>
       <c r="C59">
-        <v>0.2056762734773436</v>
+        <v>-0.1928777637225923</v>
       </c>
       <c r="D59">
-        <v>-0.02691663159218808</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03082658748812401</v>
+      </c>
+      <c r="E59">
+        <v>-0.03081721267452078</v>
+      </c>
+      <c r="F59">
+        <v>-0.03180704534189163</v>
+      </c>
+      <c r="G59">
+        <v>0.004872063345172587</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.298470487346058</v>
+        <v>0.2717147779768879</v>
       </c>
       <c r="C60">
-        <v>-0.1114373588952345</v>
+        <v>0.1021536144557822</v>
       </c>
       <c r="D60">
-        <v>-0.2201909488445808</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2366551456839464</v>
+      </c>
+      <c r="E60">
+        <v>0.2565358161701834</v>
+      </c>
+      <c r="F60">
+        <v>0.08477726555700828</v>
+      </c>
+      <c r="G60">
+        <v>-0.04795381843593428</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04658081508212528</v>
+        <v>0.04433211281906346</v>
       </c>
       <c r="C61">
-        <v>-0.05949249407439561</v>
+        <v>0.05710282220131439</v>
       </c>
       <c r="D61">
-        <v>-0.01768280849288625</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04612793926547185</v>
+      </c>
+      <c r="E61">
+        <v>-0.05644977368738651</v>
+      </c>
+      <c r="F61">
+        <v>-0.04558590445996193</v>
+      </c>
+      <c r="G61">
+        <v>-0.07794046371559842</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01809935254127938</v>
+        <v>0.01800399771477084</v>
       </c>
       <c r="C63">
-        <v>-0.03409111743301305</v>
+        <v>0.03059265464360852</v>
       </c>
       <c r="D63">
-        <v>0.01744909154489631</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02011660130600855</v>
+      </c>
+      <c r="E63">
+        <v>-0.06893577483900716</v>
+      </c>
+      <c r="F63">
+        <v>-0.02774001477537883</v>
+      </c>
+      <c r="G63">
+        <v>-0.073973672893903</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05348245237370135</v>
+        <v>0.05837915483992279</v>
       </c>
       <c r="C64">
-        <v>-0.04909374431147503</v>
+        <v>0.05816641256405431</v>
       </c>
       <c r="D64">
-        <v>-0.009567874453144103</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01379370068620887</v>
+      </c>
+      <c r="E64">
+        <v>-0.04726326726687772</v>
+      </c>
+      <c r="F64">
+        <v>-0.04471692167316819</v>
+      </c>
+      <c r="G64">
+        <v>-0.05645698194014435</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07896908324464852</v>
+        <v>0.06527939832339846</v>
       </c>
       <c r="C65">
-        <v>-0.02609272536058665</v>
+        <v>0.02609079095426606</v>
       </c>
       <c r="D65">
-        <v>-0.05700128698365088</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.09016798585379408</v>
+      </c>
+      <c r="E65">
+        <v>-0.05090112725215182</v>
+      </c>
+      <c r="F65">
+        <v>0.002985528492326005</v>
+      </c>
+      <c r="G65">
+        <v>-0.01734480237189455</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06153658681952971</v>
+        <v>0.05464940355528233</v>
       </c>
       <c r="C66">
-        <v>-0.08002362524474574</v>
+        <v>0.07706311511541218</v>
       </c>
       <c r="D66">
-        <v>-0.04075309265145687</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.08018138095761432</v>
+      </c>
+      <c r="E66">
+        <v>-0.07314754091308207</v>
+      </c>
+      <c r="F66">
+        <v>-0.05106887151970657</v>
+      </c>
+      <c r="G66">
+        <v>-0.07511241286928554</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05040287468193252</v>
+        <v>0.04402751023561428</v>
       </c>
       <c r="C67">
-        <v>-0.03187850281785267</v>
+        <v>0.0284336236215201</v>
       </c>
       <c r="D67">
-        <v>0.02346079436302089</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.005366790909644605</v>
+      </c>
+      <c r="E67">
+        <v>-0.03388437901401636</v>
+      </c>
+      <c r="F67">
+        <v>-0.01901737670004288</v>
+      </c>
+      <c r="G67">
+        <v>-0.03414002669247266</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1262699009283233</v>
+        <v>0.1472061766327683</v>
       </c>
       <c r="C68">
-        <v>0.2837054839022817</v>
+        <v>-0.2444440696576106</v>
       </c>
       <c r="D68">
-        <v>0.008911774858361114</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01109008385740863</v>
+      </c>
+      <c r="E68">
+        <v>-0.04432662272530436</v>
+      </c>
+      <c r="F68">
+        <v>-0.004131149217650992</v>
+      </c>
+      <c r="G68">
+        <v>-0.02522952241159388</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09222160537907817</v>
+        <v>0.08957158261940633</v>
       </c>
       <c r="C69">
-        <v>-0.07217288296955676</v>
+        <v>0.08927314526773503</v>
       </c>
       <c r="D69">
-        <v>0.04570253191572357</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008718464882673084</v>
+      </c>
+      <c r="E69">
+        <v>-0.0619437575167549</v>
+      </c>
+      <c r="F69">
+        <v>-0.04579104695446848</v>
+      </c>
+      <c r="G69">
+        <v>-0.07518364860217566</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1155601199441937</v>
+        <v>0.1419584849346627</v>
       </c>
       <c r="C71">
-        <v>0.2592782198941961</v>
+        <v>-0.2446757414832262</v>
       </c>
       <c r="D71">
-        <v>-0.01156951024885512</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.009168035610055612</v>
+      </c>
+      <c r="E71">
+        <v>-0.06502380759213305</v>
+      </c>
+      <c r="F71">
+        <v>0.0005103228319370957</v>
+      </c>
+      <c r="G71">
+        <v>-0.05527054313855058</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09895960443702832</v>
+        <v>0.105456752737339</v>
       </c>
       <c r="C72">
-        <v>-0.04112920208347944</v>
+        <v>0.04677270557806212</v>
       </c>
       <c r="D72">
-        <v>-0.003247735331643247</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.03840010900941075</v>
+      </c>
+      <c r="E72">
+        <v>-0.02317742693372222</v>
+      </c>
+      <c r="F72">
+        <v>-0.01862075169746569</v>
+      </c>
+      <c r="G72">
+        <v>-0.1028571444359973</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3822287530718063</v>
+        <v>0.3266675889177813</v>
       </c>
       <c r="C73">
-        <v>-0.04628502061432265</v>
+        <v>0.06346355464739509</v>
       </c>
       <c r="D73">
-        <v>-0.5186804734959305</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4843437676799893</v>
+      </c>
+      <c r="E73">
+        <v>0.4918935491605355</v>
+      </c>
+      <c r="F73">
+        <v>0.2325704664728842</v>
+      </c>
+      <c r="G73">
+        <v>-0.01191491358923224</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1069109150234964</v>
+        <v>0.111618097709861</v>
       </c>
       <c r="C74">
-        <v>-0.09168044151215843</v>
+        <v>0.09072063126543652</v>
       </c>
       <c r="D74">
-        <v>0.04955519319682469</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04470824875692502</v>
+      </c>
+      <c r="E74">
+        <v>-0.05731137812549561</v>
+      </c>
+      <c r="F74">
+        <v>0.01515786125299628</v>
+      </c>
+      <c r="G74">
+        <v>-0.04827930929884618</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2560894359610919</v>
+        <v>0.2588312954854033</v>
       </c>
       <c r="C75">
-        <v>-0.086236415251919</v>
+        <v>0.1201751443801041</v>
       </c>
       <c r="D75">
-        <v>0.1516303068858196</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1533333708112857</v>
+      </c>
+      <c r="E75">
+        <v>-0.02322752841568556</v>
+      </c>
+      <c r="F75">
+        <v>0.04249823182029112</v>
+      </c>
+      <c r="G75">
+        <v>0.04593410576458869</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1166633492927745</v>
+        <v>0.1300394579118965</v>
       </c>
       <c r="C76">
-        <v>-0.07683741680375651</v>
+        <v>0.08851393369017742</v>
       </c>
       <c r="D76">
-        <v>0.08025297840260062</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.07550387605497495</v>
+      </c>
+      <c r="E76">
+        <v>-0.07994166490997651</v>
+      </c>
+      <c r="F76">
+        <v>-0.01200173124892055</v>
+      </c>
+      <c r="G76">
+        <v>-0.03582916801143803</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08512304100718668</v>
+        <v>0.06947683801884713</v>
       </c>
       <c r="C77">
-        <v>-0.04236337024469447</v>
+        <v>0.0570489580526914</v>
       </c>
       <c r="D77">
-        <v>-0.05759593189648993</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.07272516104590328</v>
+      </c>
+      <c r="E77">
+        <v>-0.1010922086340112</v>
+      </c>
+      <c r="F77">
+        <v>-0.1838928546012607</v>
+      </c>
+      <c r="G77">
+        <v>0.1182688192520144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04893849682599515</v>
+        <v>0.0486026708120819</v>
       </c>
       <c r="C78">
-        <v>-0.03908705664915215</v>
+        <v>0.0518861501155608</v>
       </c>
       <c r="D78">
-        <v>-0.03787751415999064</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07203907475694842</v>
+      </c>
+      <c r="E78">
+        <v>-0.06783756617935799</v>
+      </c>
+      <c r="F78">
+        <v>-0.04894708139941879</v>
+      </c>
+      <c r="G78">
+        <v>-0.06538802973978802</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.0004579172559774836</v>
+        <v>0.0346936480733644</v>
       </c>
       <c r="C79">
-        <v>-0.001101508869827404</v>
+        <v>0.0495020454177823</v>
       </c>
       <c r="D79">
-        <v>-0.004039640624091582</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.08235310352816874</v>
+      </c>
+      <c r="E79">
+        <v>-0.07218976346511825</v>
+      </c>
+      <c r="F79">
+        <v>0.02768376931591624</v>
+      </c>
+      <c r="G79">
+        <v>-0.03530347076831024</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04051806617387609</v>
+        <v>0.03127058524541292</v>
       </c>
       <c r="C80">
-        <v>-0.05242837697489768</v>
+        <v>0.05125309825225734</v>
       </c>
       <c r="D80">
-        <v>-0.03615105103055027</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04568726262514462</v>
+      </c>
+      <c r="E80">
+        <v>-0.01304707063178037</v>
+      </c>
+      <c r="F80">
+        <v>-0.05224134539687784</v>
+      </c>
+      <c r="G80">
+        <v>0.0004651248992891316</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1441301685464136</v>
+        <v>0.1425519155810626</v>
       </c>
       <c r="C81">
-        <v>-0.07165033190146118</v>
+        <v>0.09024579133965571</v>
       </c>
       <c r="D81">
-        <v>0.1196913900654304</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1203754489254443</v>
+      </c>
+      <c r="E81">
+        <v>-0.06775609781376236</v>
+      </c>
+      <c r="F81">
+        <v>0.01974857115409128</v>
+      </c>
+      <c r="G81">
+        <v>0.01511974229987758</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.205171043423851</v>
+        <v>0.2330495896490733</v>
       </c>
       <c r="C82">
-        <v>-0.0898630674110843</v>
+        <v>0.1541323396906091</v>
       </c>
       <c r="D82">
-        <v>0.2064155194137706</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2504203122505929</v>
+      </c>
+      <c r="E82">
+        <v>0.03642808419947603</v>
+      </c>
+      <c r="F82">
+        <v>-0.04430539384204725</v>
+      </c>
+      <c r="G82">
+        <v>-0.08910300229681554</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04372263389831647</v>
+        <v>0.03000463995887866</v>
       </c>
       <c r="C83">
-        <v>-0.03300032262540294</v>
+        <v>0.04572427830890165</v>
       </c>
       <c r="D83">
-        <v>-0.04236232326963969</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03494100960918774</v>
+      </c>
+      <c r="E83">
+        <v>-0.02602487873178384</v>
+      </c>
+      <c r="F83">
+        <v>-0.02479517009201957</v>
+      </c>
+      <c r="G83">
+        <v>0.002861716292473573</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0002172399155472368</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0005492130974998577</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0005259500922073702</v>
+      </c>
+      <c r="E84">
+        <v>-0.003484126393719903</v>
+      </c>
+      <c r="F84">
+        <v>0.001598201900190036</v>
+      </c>
+      <c r="G84">
+        <v>0.0002725038782135368</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2190454062166546</v>
+        <v>0.2035962819791847</v>
       </c>
       <c r="C85">
-        <v>-0.09395429327822652</v>
+        <v>0.1095655292942087</v>
       </c>
       <c r="D85">
-        <v>0.1635687085512449</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.130324465517326</v>
+      </c>
+      <c r="E85">
+        <v>0.008234994194310041</v>
+      </c>
+      <c r="F85">
+        <v>0.09968628293003484</v>
+      </c>
+      <c r="G85">
+        <v>-0.006440467683919678</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01049361010765534</v>
+        <v>0.01407100956325279</v>
       </c>
       <c r="C86">
-        <v>-0.02887890679162786</v>
+        <v>0.01764594971850809</v>
       </c>
       <c r="D86">
-        <v>-0.04338757349824852</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07011713583803998</v>
+      </c>
+      <c r="E86">
+        <v>-0.08145256552194094</v>
+      </c>
+      <c r="F86">
+        <v>-0.06868603749015985</v>
+      </c>
+      <c r="G86">
+        <v>-0.07255957958934028</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.03019648232462024</v>
+        <v>0.03008898088516189</v>
       </c>
       <c r="C87">
-        <v>-0.004587590609373111</v>
+        <v>0.01392254992279908</v>
       </c>
       <c r="D87">
-        <v>-0.07376986511066677</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09419735430040178</v>
+      </c>
+      <c r="E87">
+        <v>-0.1292771278825248</v>
+      </c>
+      <c r="F87">
+        <v>-0.07069036262133778</v>
+      </c>
+      <c r="G87">
+        <v>0.004165772103312015</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1095040668452333</v>
+        <v>0.09386019952383783</v>
       </c>
       <c r="C88">
-        <v>-0.08442281244736718</v>
+        <v>0.06743715337336667</v>
       </c>
       <c r="D88">
-        <v>0.01655504732048996</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01606648218201174</v>
+      </c>
+      <c r="E88">
+        <v>-0.05196303700973466</v>
+      </c>
+      <c r="F88">
+        <v>-0.03767629205933764</v>
+      </c>
+      <c r="G88">
+        <v>-0.02965183781731581</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1762969048785045</v>
+        <v>0.2111650336187023</v>
       </c>
       <c r="C89">
-        <v>0.379873114928637</v>
+        <v>-0.3845764638022368</v>
       </c>
       <c r="D89">
-        <v>0.0281638193622691</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01077131258306975</v>
+      </c>
+      <c r="E89">
+        <v>-0.08140017989532564</v>
+      </c>
+      <c r="F89">
+        <v>-0.08335814845690465</v>
+      </c>
+      <c r="G89">
+        <v>0.002700887204762653</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1690930328722506</v>
+        <v>0.1920159615033155</v>
       </c>
       <c r="C90">
-        <v>0.3310736841959542</v>
+        <v>-0.310364534664495</v>
       </c>
       <c r="D90">
-        <v>0.03611073170122427</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01405827045285461</v>
+      </c>
+      <c r="E90">
+        <v>-0.06004382495769565</v>
+      </c>
+      <c r="F90">
+        <v>-0.02247281895658747</v>
+      </c>
+      <c r="G90">
+        <v>-0.01219399131230162</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1911615239070122</v>
+        <v>0.1879911117949909</v>
       </c>
       <c r="C91">
-        <v>-0.1214108109282201</v>
+        <v>0.1392445630886498</v>
       </c>
       <c r="D91">
-        <v>0.1377880205632839</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1269072519206053</v>
+      </c>
+      <c r="E91">
+        <v>-0.05007353391293622</v>
+      </c>
+      <c r="F91">
+        <v>0.009013528396395385</v>
+      </c>
+      <c r="G91">
+        <v>0.004921414751069935</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1612275653467323</v>
+        <v>0.1785069003441164</v>
       </c>
       <c r="C92">
-        <v>0.2981445934628947</v>
+        <v>-0.3008924572710118</v>
       </c>
       <c r="D92">
-        <v>0.02224729187027559</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01237458304955146</v>
+      </c>
+      <c r="E92">
+        <v>-0.06512738563249772</v>
+      </c>
+      <c r="F92">
+        <v>-0.04981007648505044</v>
+      </c>
+      <c r="G92">
+        <v>-0.03222554892886621</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1887053870700249</v>
+        <v>0.2122157340132771</v>
       </c>
       <c r="C93">
-        <v>0.3355427732575846</v>
+        <v>-0.321372153535395</v>
       </c>
       <c r="D93">
-        <v>0.04317978767902905</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0175924833642089</v>
+      </c>
+      <c r="E93">
+        <v>-0.04588501767401909</v>
+      </c>
+      <c r="F93">
+        <v>0.004610543564367639</v>
+      </c>
+      <c r="G93">
+        <v>-0.03559175676307452</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3530772440012229</v>
+        <v>0.3481162166755415</v>
       </c>
       <c r="C94">
-        <v>-0.1288940222803654</v>
+        <v>0.1738538086539395</v>
       </c>
       <c r="D94">
-        <v>0.4245476360969585</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4085937555894997</v>
+      </c>
+      <c r="E94">
+        <v>0.002642774522123577</v>
+      </c>
+      <c r="F94">
+        <v>0.09175721039603459</v>
+      </c>
+      <c r="G94">
+        <v>0.4373895856259226</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1234632819759951</v>
+        <v>0.09057493136277159</v>
       </c>
       <c r="C95">
-        <v>-0.04716398047453021</v>
+        <v>0.05299921503518874</v>
       </c>
       <c r="D95">
-        <v>-0.2273235241548469</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.195410735937275</v>
+      </c>
+      <c r="E95">
+        <v>0.1506474396499162</v>
+      </c>
+      <c r="F95">
+        <v>-0.776490287999076</v>
+      </c>
+      <c r="G95">
+        <v>0.4568293483087705</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1886020496238381</v>
+        <v>0.1859201880579141</v>
       </c>
       <c r="C98">
-        <v>-0.02918035487159799</v>
+        <v>0.04760114609453331</v>
       </c>
       <c r="D98">
-        <v>-0.1909307944835308</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1973278191416656</v>
+      </c>
+      <c r="E98">
+        <v>0.1515094087978132</v>
+      </c>
+      <c r="F98">
+        <v>0.09513629326502751</v>
+      </c>
+      <c r="G98">
+        <v>-0.06869472319439696</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008864375872966991</v>
+        <v>0.008041838864563963</v>
       </c>
       <c r="C101">
-        <v>-0.03245578109683175</v>
+        <v>0.02821529072810123</v>
       </c>
       <c r="D101">
-        <v>0.008099342633637751</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02376544818122774</v>
+      </c>
+      <c r="E101">
+        <v>-0.06403685957376437</v>
+      </c>
+      <c r="F101">
+        <v>-0.05479435158601475</v>
+      </c>
+      <c r="G101">
+        <v>-0.08546019659819287</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1220954888785081</v>
+        <v>0.1254815006881246</v>
       </c>
       <c r="C102">
-        <v>-0.06284173954677784</v>
+        <v>0.09608539638779735</v>
       </c>
       <c r="D102">
-        <v>0.05258990224638321</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06103567652648655</v>
+      </c>
+      <c r="E102">
+        <v>0.0135782361136349</v>
+      </c>
+      <c r="F102">
+        <v>-0.02637376788013514</v>
+      </c>
+      <c r="G102">
+        <v>-0.003107654580225156</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
